--- a/Text_clf_Results.xlsx
+++ b/Text_clf_Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4628F5-4D00-416B-AE12-FF31B2C043FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CB4628F5-4D00-416B-AE12-FF31B2C043FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E21A7622-AEA5-40B7-B71A-8AAFA243ADB8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -159,6 +156,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,16 +184,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>563879</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2107324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>475648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>555734</xdr:rowOff>
+      <xdr:colOff>423097</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -216,8 +216,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6522719" y="563879"/>
-          <a:ext cx="2883569" cy="1889235"/>
+          <a:off x="7194795" y="3443018"/>
+          <a:ext cx="2820537" cy="1874443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -229,15 +229,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>563880</xdr:rowOff>
+      <xdr:colOff>16291</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:colOff>473491</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>72259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -260,8 +260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8039100" y="2461260"/>
-          <a:ext cx="2903220" cy="1668780"/>
+          <a:off x="7215877" y="5319811"/>
+          <a:ext cx="2828597" cy="1663000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -538,218 +538,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="23.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>79.352000000000004</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>79.47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>0.879</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>75.44</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>79.56</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6">
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>70.569999999999993</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>72.010000000000005</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
         <v>71.78</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>71.58</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:A16"/>
@@ -766,7 +767,6 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Text_clf_Results.xlsx
+++ b/Text_clf_Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CB4628F5-4D00-416B-AE12-FF31B2C043FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E21A7622-AEA5-40B7-B71A-8AAFA243ADB8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7785F2EA-A4F1-4965-806F-7018EB81825A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Model</t>
   </si>
@@ -98,12 +98,75 @@
   <si>
     <t>3-Nearest Neighbour</t>
   </si>
+  <si>
+    <t>Accuracy(Expended Feature)</t>
+  </si>
+  <si>
+    <t>Accuracy(Wang expended)</t>
+  </si>
+  <si>
+    <t>Confusion Matrix(Expended)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3048  716 |    a = fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  942 2851 |    b = real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3026  738 |    a = fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  885 2908 |    b = real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2519 1245 |    a = fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  910 2883 |    b = real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2155 1609 |    a = fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  732 3061 |    b = real</t>
+  </si>
+  <si>
+    <t>ROC(</t>
+  </si>
+  <si>
+    <t>Confusion matrix (Wang)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3844 1170 |    a = fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1687 3355 |    b = real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3797 1217 |    a = fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1558 3484 |    b = real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2408 2606 |    a = fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  922 4120 |    b = real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3256 1758 |    a = fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1554 3488 |    b = real</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +176,23 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,16 +220,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,11 +237,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -184,16 +285,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2107324</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25224</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>563879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>423097</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>17079</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>475648</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>464294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -216,8 +317,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7194795" y="3443018"/>
-          <a:ext cx="2820537" cy="1874443"/>
+          <a:off x="6522719" y="563879"/>
+          <a:ext cx="2883569" cy="1889235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -228,16 +329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>16291</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5518</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>563880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>473491</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>72259</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -260,8 +361,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7215877" y="5319811"/>
-          <a:ext cx="2828597" cy="1663000"/>
+          <a:off x="8039100" y="2461260"/>
+          <a:ext cx="2903220" cy="1668780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -536,39 +637,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="23.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="29.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="23.109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="23.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="31.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -579,186 +684,351 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="M4" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
-        <v>79.352000000000004</v>
-      </c>
-      <c r="C5" s="6">
-        <v>79.47</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="7">
+        <v>77.459999999999994</v>
+      </c>
+      <c r="C5" s="7">
+        <v>77.67</v>
+      </c>
+      <c r="D5" s="9">
+        <v>78.010000000000005</v>
+      </c>
+      <c r="E5" s="7">
+        <v>71.69</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="G5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13">
         <v>0.879</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="1" t="s">
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1" t="s">
+      <c r="G6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
-        <v>75.44</v>
-      </c>
-      <c r="C8" s="6">
-        <v>79.56</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="7">
+        <v>78.34</v>
+      </c>
+      <c r="C8" s="7">
+        <v>78.260000000000005</v>
+      </c>
+      <c r="D8" s="7">
+        <v>78.790000000000006</v>
+      </c>
+      <c r="E8" s="7">
+        <v>72.55</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="G8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13">
         <v>0.85199999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="1" t="s">
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1" t="s">
+      <c r="G9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
-        <v>70.569999999999993</v>
-      </c>
-      <c r="C11" s="6">
-        <v>72.010000000000005</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="7">
+        <v>70.19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>72.02</v>
+      </c>
+      <c r="D11" s="7">
+        <v>69.13</v>
+      </c>
+      <c r="E11" s="7">
+        <v>65.11</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="G11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="1" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="1" t="s">
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="G13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6">
-        <v>71.78</v>
-      </c>
-      <c r="C14" s="6">
-        <v>71.58</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="7">
+        <v>64.89</v>
+      </c>
+      <c r="C14" s="7">
+        <v>64.05</v>
+      </c>
+      <c r="D14" s="7">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="E14" s="7">
+        <v>60.68</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="G14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="1" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="1" t="s">
+      <c r="G15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="25">
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:G13"/>
-    <mergeCell ref="E14:G16"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="I11:K13"/>
+    <mergeCell ref="I14:K16"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C5:C7"/>
